--- a/Output/NIS_CSV_Trial_3.xlsx
+++ b/Output/NIS_CSV_Trial_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NIS_CSV_Trial_3_1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Chart1" sheetId="2" r:id="rId3"/>
     <sheet name="Chart1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,11 +554,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -716,7 +720,7 @@
             <c:numRef>
               <c:f>NIS_CSV_Trial_3_1!$A$1:$A$498</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="498"/>
                 <c:pt idx="0">
                   <c:v>16.501100000000001</c:v>
@@ -2222,6 +2226,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1260073632"/>
+        <c:axId val="1174551216"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2244,7 +2264,7 @@
             <c:numRef>
               <c:f>NIS_CSV_Trial_3_1!$B$1:$B$498</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="498"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3758,9 +3778,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1260073632"/>
-        <c:axId val="1174551216"/>
+        <c:axId val="1791915455"/>
+        <c:axId val="1613807727"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1260073632"/>
@@ -3834,7 +3855,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3869,6 +3890,65 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1613807727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791915455"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1791915455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1613807727"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5545,6 +5625,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1260073632"/>
+        <c:axId val="1174551216"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -7078,9 +7174,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1260073632"/>
-        <c:axId val="1174551216"/>
+        <c:axId val="1791931679"/>
+        <c:axId val="1689673695"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1260073632"/>
@@ -7189,6 +7286,65 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1689673695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791931679"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1791931679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1689673695"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8373,10 +8529,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8384,7 +8540,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
@@ -8756,223 +8912,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="2" width="10.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" s="4">
         <v>16.501100000000001</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>16.501100000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>5.1270499999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2.3938000000000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>5.1270499999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>2.3938000000000001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1.2057100000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1.69923</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1.2057100000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>1.69923</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.75795500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>1.7903899999999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.75795500000000005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>1.7903899999999999</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>0.29853099999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>0.45443499999999998</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>0.29853099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>0.45443499999999998</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0.51246100000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>2.5911200000000001</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.51246100000000006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>2.5911200000000001</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>3.4948199999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>3.4917699999999998</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>3.4948199999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>3.4917699999999998</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.25038100000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>1.23868</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>0.25038100000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>1.23868</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>9.9108599999999996</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>1.56562</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>9.9108599999999996</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>1.56562</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>3.6012300000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>1.6580699999999999</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>3.6012300000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>1.6580699999999999</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>2.1129199999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>3.81541</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>2.1129199999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>3.81541</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>3.2493599999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>0.31177700000000003</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>3.2493599999999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>0.31177700000000003</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>0.21254700000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>2.41778</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0.21254700000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>2.41778</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>2.2486899999999999</v>
       </c>
       <c r="E26" t="s">
@@ -8983,10 +9140,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>5.2305400000000004</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>2.2486899999999999</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -9002,3770 +9159,3770 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>5.2305400000000004</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>0.61549600000000004</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>2.2836400000000001</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>0.61549600000000004</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>2.2836400000000001</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>0.24223</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>6.6019500000000004</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>0.24223</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>6.6019500000000004</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>0.58443000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>6.8455399999999997</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>0.58443000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>6.8455399999999997</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>0.59738800000000003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>4.35053</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>0.59738800000000003</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>4.35053</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>3.0099499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>4.9434399999999998</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>3.0099499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>4.9434399999999998</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>1.1232</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>3.38971</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>1.1232</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>3.38971</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>1.0887800000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>2.2673299999999998</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>1.0887800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>2.2673299999999998</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>2.1066099999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>0.68430299999999999</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>2.1066099999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>0.68430299999999999</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>0.26352399999999998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>1.53392</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>0.26352399999999998</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>1.53392</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>0.62922</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>0.77671699999999999</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>0.62922</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>0.77671699999999999</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>3.2797900000000002</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>2.91723</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>3.2797900000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>2.91723</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>2.62988</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>11.2058</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>2.62988</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>11.2058</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>0.92156199999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>0.17766199999999999</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>0.92156199999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>0.17766199999999999</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>0.73354600000000003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>1.32107</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>0.73354600000000003</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>1.32107</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>2.2196600000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>3.57341</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>2.2196600000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>3.57341</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>1.13948</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>2.7280799999999998</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>1.13948</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>2.7280799999999998</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>0.63155399999999995</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>1.0018899999999999</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>0.63155399999999995</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>1.0018899999999999</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>0.188106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>1.6374299999999999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>0.188106</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>1.6374299999999999</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>0.431087</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>0.64659599999999995</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>0.431087</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>0.64659599999999995</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>0.50998699999999997</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>3.75685</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>0.50998699999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>3.75685</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>0.83749700000000005</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>1.47102</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>0.83749700000000005</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>1.47102</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>0.15557399999999999</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>2.79236</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>0.15557399999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>2.79236</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>1.3002100000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>0.67074400000000001</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>1.3002100000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>0.67074400000000001</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>0.93393000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>0.88064100000000001</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>0.93393000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>0.88064100000000001</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>0.92789299999999997</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>0.27527800000000002</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>0.92789299999999997</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>0.27527800000000002</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>1.4073500000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>0.79732700000000001</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>1.4073500000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>0.79732700000000001</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>3.6799499999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>3.6255000000000002</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>3.6799499999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>3.6255000000000002</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>1.7820400000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>0.26695000000000002</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>1.7820400000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>0.26695000000000002</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>1.30518</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>2.1637300000000002</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>1.30518</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>2.1637300000000002</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>3.16554</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>0.44275900000000001</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>3.16554</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>0.44275900000000001</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>4.0256699999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>0.92769900000000005</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>4.0256699999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>0.92769900000000005</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>3.35134</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>2.3710599999999999</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>3.35134</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>2.3710599999999999</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>1.1061000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>7.4020700000000001</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>1.1061000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>7.4020700000000001</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>1.19241</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>2.9401299999999999</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>1.19241</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>2.9401299999999999</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>2.2225299999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>4.9018899999999999</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>2.2225299999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>4.9018899999999999</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>1.18878E-4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>10.656599999999999</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>1.18878E-4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>10.656599999999999</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>4.7450200000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>3.7042799999999998</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>4.7450200000000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>3.7042799999999998</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>1.11565</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>3.2898100000000001</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>1.11565</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>3.2898100000000001</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>1.8316600000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>2.0700799999999999</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>1.8316600000000001</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>2.0700799999999999</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>0.942272</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>1.30009</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>0.942272</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>1.30009</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>1.3846400000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>0.83656600000000003</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>1.3846400000000001</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>0.83656600000000003</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>0.42189100000000002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>1.3803000000000001</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>0.42189100000000002</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>1.3803000000000001</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>1.2380599999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>3.3666</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>1.2380599999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>3.3666</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>2.13341</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>7.9231499999999997</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>2.13341</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>7.9231499999999997</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>3.1675900000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>1.22959</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>3.1675900000000001</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>1.22959</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>0.10603600000000001</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>1.77718</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>0.10603600000000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>1.77718</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>0.44195899999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>0.22698599999999999</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>0.44195899999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>0.22698599999999999</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>0.35894700000000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>6.7791499999999996</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>0.35894700000000002</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>6.7791499999999996</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>2.1132399999999998</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>5.9124600000000003</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>2.1132399999999998</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>5.9124600000000003</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>3.7934199999999998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>2.3648199999999999</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>3.7934199999999998</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>2.3648199999999999</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>0.95446600000000004</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>2.0036</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>0.95446600000000004</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>2.0036</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>1.0577099999999999</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>6.6336000000000004</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>1.0577099999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>6.6336000000000004</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>0.57224399999999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>1.7357100000000001</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>0.57224399999999997</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>1.7357100000000001</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>0.254326</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>3.0878100000000002</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>0.254326</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>3.0878100000000002</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>2.7031399999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>3.26017</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>2.7031399999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>3.26017</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>0.80988300000000002</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>10.094200000000001</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>0.80988300000000002</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>10.094200000000001</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>0.73074499999999998</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>3.2901699999999998</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>0.73074499999999998</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>3.2901699999999998</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>1.18608</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>5.5957600000000003</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>1.18608</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>5.5957600000000003</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>1.9773700000000001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>2.1149100000000001</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>1.9773700000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>2.1149100000000001</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>0.619398</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>1.2022699999999999</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>0.619398</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>1.2022699999999999</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <v>0.67021200000000003</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>0.34356500000000001</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>0.67021200000000003</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>0.34356500000000001</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>1.4708399999999999</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>2.4152900000000002</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>1.4708399999999999</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>2.4152900000000002</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>0.223491</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>1.8039799999999999</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>0.223491</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>1.8039799999999999</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>2.17564</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>2.5199500000000001</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <v>2.17564</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>2.5199500000000001</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <v>0.12153600000000001</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>0.98204400000000003</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>0.12153600000000001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>0.98204400000000003</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>1.9674400000000001</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>1.0926899999999999</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>1.9674400000000001</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>1.0926899999999999</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>0.68801299999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>4.1701100000000002</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>0.68801299999999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>4.1701100000000002</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>0.50745300000000004</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>5.4671900000000004</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>0.50745300000000004</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>5.4671900000000004</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>3.5633400000000002</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>1.0164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>3.5633400000000002</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>1.0164</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <v>1.4998899999999999</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>2.1327600000000002</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>1.4998899999999999</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>2.1327600000000002</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <v>0.60193399999999997</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>1.3948199999999999</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <v>0.60193399999999997</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>1.3948199999999999</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <v>3.05844</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>4.2741300000000004</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>3.05844</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>4.2741300000000004</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <v>3.0627200000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>6.4338000000000006E-2</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <v>3.0627200000000001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>6.4338000000000006E-2</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <v>0.15338299999999999</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>3.3772700000000002</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <v>0.15338299999999999</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>3.3772700000000002</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
         <v>3.1831399999999999</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>0.26267499999999999</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <v>3.1831399999999999</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>0.26267499999999999</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>0.40275699999999998</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>0.60157300000000002</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>0.40275699999999998</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>0.60157300000000002</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <v>0.19153800000000001</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>2.9903599999999999</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <v>0.19153800000000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>2.9903599999999999</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <v>0.49741600000000002</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>1.67018</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
         <v>0.49741600000000002</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>1.67018</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
         <v>1.9495100000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>1.8123</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
         <v>1.9495100000000001</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>1.8123</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="4">
         <v>2.00861</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>4.67544</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
         <v>2.00861</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>4.67544</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
         <v>0.69722899999999999</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>1.5891299999999999</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
         <v>0.69722899999999999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>1.5891299999999999</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
         <v>1.0829200000000001</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>1.16134</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
         <v>1.0829200000000001</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>1.16134</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
         <v>1.5744400000000001</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>7.34178</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
         <v>1.5744400000000001</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>7.34178</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
         <v>2.7408800000000002</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>3.4967899999999998</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
         <v>2.7408800000000002</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>3.4967899999999998</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="4">
         <v>1.2087399999999999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>2.17048</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
         <v>1.2087399999999999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>2.17048</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
         <v>6.2375699999999998</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>2.7305299999999999</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="4">
         <v>6.2375699999999998</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>2.7305299999999999</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
         <v>2.54279E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>2.3139599999999998</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
         <v>2.54279E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>2.3139599999999998</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
         <v>0.51748400000000006</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>4.7985100000000003</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
         <v>0.51748400000000006</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>4.7985100000000003</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
         <v>2.2192799999999999</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>0.81816199999999994</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
         <v>2.2192799999999999</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>0.81816199999999994</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="4">
         <v>1.7884599999999999</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>2.0624400000000001</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="4">
         <v>1.7884599999999999</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>2.0624400000000001</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="4">
         <v>0.67960600000000004</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>1.0202199999999999</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="4">
         <v>0.67960600000000004</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>1.0202199999999999</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="4">
         <v>2.06528</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>2.5937899999999998</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="4">
         <v>2.06528</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>2.5937899999999998</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="4">
         <v>0.51905500000000004</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>1.7857499999999999</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="4">
         <v>0.51905500000000004</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>1.7857499999999999</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="4">
         <v>0.72408700000000004</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>2.3667099999999999</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="4">
         <v>0.72408700000000004</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>2.3667099999999999</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="4">
         <v>4.2488799999999998</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>0.64758800000000005</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="4">
         <v>4.2488799999999998</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>0.64758800000000005</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="4">
         <v>1.05504</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>1.4090499999999999</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="4">
         <v>1.05504</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>1.4090499999999999</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="4">
         <v>3.8344</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>3.06731</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="4">
         <v>3.8344</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>3.06731</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="4">
         <v>0.34517100000000001</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>3.5272000000000001</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="4">
         <v>0.34517100000000001</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>3.5272000000000001</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="4">
         <v>0.47596699999999997</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>2.7676799999999999</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="4">
         <v>0.47596699999999997</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>2.7676799999999999</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="4">
         <v>4.5890700000000004</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>2.4439099999999998</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="4">
         <v>4.5890700000000004</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>2.4439099999999998</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="4">
         <v>2.7837499999999999</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>1.34253</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="4">
         <v>2.7837499999999999</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>1.34253</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="4">
         <v>0.99061500000000002</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>1.16005</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
         <v>0.99061500000000002</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>1.16005</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="4">
         <v>2.1356899999999999</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>0.60959399999999997</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
         <v>2.1356899999999999</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>0.60959399999999997</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="4">
         <v>0.80783300000000002</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>2.51647</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="4">
         <v>0.80783300000000002</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>2.51647</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="4">
         <v>3.8549699999999998</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>2.00996</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="4">
         <v>3.8549699999999998</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>2.00996</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="4">
         <v>0.138908</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>2.7894700000000001</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="4">
         <v>0.138908</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>2.7894700000000001</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="4">
         <v>0.85308499999999998</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>5.4507199999999996</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="4">
         <v>0.85308499999999998</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>5.4507199999999996</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="4">
         <v>0.82175600000000004</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>5.66012</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="4">
         <v>0.82175600000000004</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>5.66012</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="4">
         <v>0.40237699999999998</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>1.63049</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="4">
         <v>0.40237699999999998</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>1.63049</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="4">
         <v>2.2245699999999999</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>3.39262</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="4">
         <v>2.2245699999999999</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>3.39262</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="4">
         <v>0.14924599999999999</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>4.0357399999999997</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="4">
         <v>0.14924599999999999</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>4.0357399999999997</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="4">
         <v>1.98607</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>2.41303</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
         <v>1.98607</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>2.41303</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="4">
         <v>0.77704399999999996</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>0.17838499999999999</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="4">
         <v>0.77704399999999996</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>0.17838499999999999</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="4">
         <v>2.2448199999999998</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>2.2673999999999999</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="4">
         <v>2.2448199999999998</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>2.2673999999999999</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="4">
         <v>2.32999</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>1.2682</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="4">
         <v>2.32999</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="A258" s="4">
         <v>1.2682</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="4">
         <v>0.80998099999999995</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" s="4">
         <v>4.2241600000000004</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="4">
         <v>0.80998099999999995</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="A260" s="4">
         <v>4.2241600000000004</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="4">
         <v>8.90291E-3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" s="4">
         <v>0.85193300000000005</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="4">
         <v>8.90291E-3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="A262" s="4">
         <v>0.85193300000000005</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="4">
         <v>1.21146</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" s="4">
         <v>0.16683899999999999</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="4">
         <v>1.21146</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="A264" s="4">
         <v>0.16683899999999999</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="4">
         <v>0.53927599999999998</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="A265" s="4">
         <v>4.1886200000000002</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="4">
         <v>0.53927599999999998</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="A266" s="4">
         <v>4.1886200000000002</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="4">
         <v>1.2618499999999999</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="A267" s="4">
         <v>0.45733000000000001</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="4">
         <v>1.2618499999999999</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="A268" s="4">
         <v>0.45733000000000001</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="4">
         <v>5.2667400000000004</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="A269" s="4">
         <v>1.1874</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="4">
         <v>5.2667400000000004</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="A270" s="4">
         <v>1.1874</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="4">
         <v>3.80294</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="A271" s="4">
         <v>5.3098299999999998</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="4">
         <v>3.80294</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="A272" s="4">
         <v>5.3098299999999998</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="4">
         <v>1.5214000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="A273" s="4">
         <v>5.83474</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="4">
         <v>1.5214000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" s="4">
         <v>5.83474</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="4">
         <v>1.5199199999999999</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="A275" s="4">
         <v>3.56576</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="4">
         <v>1.5199199999999999</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="A276" s="4">
         <v>3.56576</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="4">
         <v>2.3660399999999999</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="A277" s="4">
         <v>5.7069700000000001</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="4">
         <v>2.3660399999999999</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="A278" s="4">
         <v>5.7069700000000001</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="4">
         <v>1.57125</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="A279" s="4">
         <v>2.7688799999999998</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="4">
         <v>1.57125</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="A280" s="4">
         <v>2.7688799999999998</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="4">
         <v>1.15811</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="A281" s="4">
         <v>3.5880899999999998</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="4">
         <v>1.15811</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="A282" s="4">
         <v>3.5880899999999998</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="4">
         <v>0.350441</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="A283" s="4">
         <v>3.4403800000000002</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="4">
         <v>0.350441</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" s="4">
         <v>3.4403800000000002</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="4">
         <v>0.63531199999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="A285" s="4">
         <v>1.1959299999999999</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="4">
         <v>0.63531199999999999</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" s="4">
         <v>1.1959299999999999</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="4">
         <v>2.1269100000000001</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="A287" s="4">
         <v>0.35150900000000002</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="4">
         <v>2.1269100000000001</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" s="4">
         <v>0.35150900000000002</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="4">
         <v>1.5378700000000001</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="A289" s="4">
         <v>4.3466899999999997</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="4">
         <v>1.5378700000000001</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="A290" s="4">
         <v>4.3466899999999997</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="4">
         <v>5.1050300000000002</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="A291" s="4">
         <v>0.51056299999999999</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="4">
         <v>5.1050300000000002</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292">
+      <c r="A292" s="4">
         <v>0.51056299999999999</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="4">
         <v>0.50593900000000003</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="A293" s="4">
         <v>0.38273099999999999</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="4">
         <v>0.50593900000000003</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="A294" s="4">
         <v>0.38273099999999999</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="4">
         <v>1.1694</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="A295" s="4">
         <v>2.2254900000000002</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="4">
         <v>1.1694</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296">
+      <c r="A296" s="4">
         <v>2.2254900000000002</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="4">
         <v>0.25861600000000001</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297">
+      <c r="A297" s="4">
         <v>3.2738399999999999</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="4">
         <v>0.25861600000000001</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298">
+      <c r="A298" s="4">
         <v>3.2738399999999999</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="4">
         <v>1.8967799999999999</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299">
+      <c r="A299" s="4">
         <v>0.25768799999999997</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="4">
         <v>1.8967799999999999</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300">
+      <c r="A300" s="4">
         <v>0.25768799999999997</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="4">
         <v>6.8075899999999995E-2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301">
+      <c r="A301" s="4">
         <v>5.2871800000000002</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="4">
         <v>6.8075899999999995E-2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302">
+      <c r="A302" s="4">
         <v>5.2871800000000002</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="4">
         <v>3.9276900000000001</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303">
+      <c r="A303" s="4">
         <v>1.20004</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="4">
         <v>3.9276900000000001</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304">
+      <c r="A304" s="4">
         <v>1.20004</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="4">
         <v>0.70924299999999996</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305">
+      <c r="A305" s="4">
         <v>7.2793599999999996</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="4">
         <v>0.70924299999999996</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306">
+      <c r="A306" s="4">
         <v>7.2793599999999996</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="4">
         <v>0.74744299999999997</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307">
+      <c r="A307" s="4">
         <v>0.86542300000000005</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="4">
         <v>0.74744299999999997</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308">
+      <c r="A308" s="4">
         <v>0.86542300000000005</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="4">
         <v>3.82511</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309">
+      <c r="A309" s="4">
         <v>1.78331</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="4">
         <v>3.82511</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="A310" s="4">
         <v>1.78331</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="4">
         <v>3.60162</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311">
+      <c r="A311" s="4">
         <v>1.3802399999999999</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="4">
         <v>3.60162</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312">
+      <c r="A312" s="4">
         <v>1.3802399999999999</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="4">
         <v>3.05925</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313">
+      <c r="A313" s="4">
         <v>1.7256</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="4">
         <v>3.05925</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314">
+      <c r="A314" s="4">
         <v>1.7256</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="4">
         <v>2.8462100000000001</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315">
+      <c r="A315" s="4">
         <v>1.2587999999999999</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="4">
         <v>2.8462100000000001</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="A316" s="4">
         <v>1.2587999999999999</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="4">
         <v>0.61465099999999995</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317">
+      <c r="A317" s="4">
         <v>2.9602499999999998</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="4">
         <v>0.61465099999999995</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318">
+      <c r="A318" s="4">
         <v>2.9602499999999998</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="4">
         <v>1.65741</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319">
+      <c r="A319" s="4">
         <v>1.5198199999999999</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="4">
         <v>1.65741</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320">
+      <c r="A320" s="4">
         <v>1.5198199999999999</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="4">
         <v>4.5868399999999996</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321">
+      <c r="A321" s="4">
         <v>2.8106</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="4">
         <v>4.5868399999999996</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322">
+      <c r="A322" s="4">
         <v>2.8106</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="4">
         <v>1.8383</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323">
+      <c r="A323" s="4">
         <v>3.5414599999999998</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="4">
         <v>1.8383</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324">
+      <c r="A324" s="4">
         <v>3.5414599999999998</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="4">
         <v>0.97642600000000002</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325">
+      <c r="A325" s="4">
         <v>2.8563499999999999</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="4">
         <v>0.97642600000000002</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326">
+      <c r="A326" s="4">
         <v>2.8563499999999999</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="4">
         <v>0.66979999999999995</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327">
+      <c r="A327" s="4">
         <v>0.36316900000000002</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="4">
         <v>0.66979999999999995</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328">
+      <c r="A328" s="4">
         <v>0.36316900000000002</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="4">
         <v>2.0657299999999998</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
+      <c r="A329" s="4">
         <v>4.4752900000000002</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="4">
         <v>2.0657299999999998</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330">
+      <c r="A330" s="4">
         <v>4.4752900000000002</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="4">
         <v>5.2232000000000003</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="A331" s="4">
         <v>2.0625800000000001</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="4">
         <v>5.2232000000000003</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332">
+      <c r="A332" s="4">
         <v>2.0625800000000001</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="4">
         <v>2.0836999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333">
+      <c r="A333" s="4">
         <v>2.1430600000000002</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="4">
         <v>2.0836999999999999</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334">
+      <c r="A334" s="4">
         <v>2.1430600000000002</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="4">
         <v>0.56394599999999995</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335">
+      <c r="A335" s="4">
         <v>4.9354800000000001</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="4">
         <v>0.56394599999999995</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336">
+      <c r="A336" s="4">
         <v>4.9354800000000001</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="4">
         <v>1.6819599999999999</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337">
+      <c r="A337" s="4">
         <v>7.8809500000000003</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="4">
         <v>1.6819599999999999</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338">
+      <c r="A338" s="4">
         <v>7.8809500000000003</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="4">
         <v>0.492234</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339">
+      <c r="A339" s="4">
         <v>1.6684399999999999</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="4">
         <v>0.492234</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340">
+      <c r="A340" s="4">
         <v>1.6684399999999999</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="4">
         <v>0.23194000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341">
+      <c r="A341" s="4">
         <v>0.61689799999999995</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="4">
         <v>0.23194000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342">
+      <c r="A342" s="4">
         <v>0.61689799999999995</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="4">
         <v>1.96472</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343">
+      <c r="A343" s="4">
         <v>1.7793699999999999</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="4">
         <v>1.96472</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344">
+      <c r="A344" s="4">
         <v>1.7793699999999999</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="4">
         <v>0.28056799999999998</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345">
+      <c r="A345" s="4">
         <v>3.9037799999999998</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="4">
         <v>0.28056799999999998</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346">
+      <c r="A346" s="4">
         <v>3.9037799999999998</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="4">
         <v>3.13103</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347">
+      <c r="A347" s="4">
         <v>1.1567400000000001</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="4">
         <v>3.13103</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348">
+      <c r="A348" s="4">
         <v>1.1567400000000001</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="4">
         <v>1.47624</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349">
+      <c r="A349" s="4">
         <v>4.98895</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="4">
         <v>1.47624</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350">
+      <c r="A350" s="4">
         <v>4.98895</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="4">
         <v>13.9331</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351">
+      <c r="A351" s="4">
         <v>1.63859</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="4">
         <v>13.9331</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352">
+      <c r="A352" s="4">
         <v>1.63859</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="4">
         <v>0.75309599999999999</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353">
+      <c r="A353" s="4">
         <v>2.5542199999999999</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="4">
         <v>0.75309599999999999</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354">
+      <c r="A354" s="4">
         <v>2.5542199999999999</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="4">
         <v>1.075</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355">
+      <c r="A355" s="4">
         <v>1.97739</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="4">
         <v>1.075</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356">
+      <c r="A356" s="4">
         <v>1.97739</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="4">
         <v>1.29928</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357">
+      <c r="A357" s="4">
         <v>6.1012300000000002</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="4">
         <v>1.29928</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358">
+      <c r="A358" s="4">
         <v>6.1012300000000002</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="4">
         <v>3.6466800000000001E-2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359">
+      <c r="A359" s="4">
         <v>2.1863700000000001</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="4">
         <v>3.6466800000000001E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360">
+      <c r="A360" s="4">
         <v>2.1863700000000001</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="4">
         <v>1.5051399999999999</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361">
+      <c r="A361" s="4">
         <v>0.78010199999999996</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="4">
         <v>1.5051399999999999</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362">
+      <c r="A362" s="4">
         <v>0.78010199999999996</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="4">
         <v>6.7107599999999996</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363">
+      <c r="A363" s="4">
         <v>3.6338300000000001</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="4">
         <v>6.7107599999999996</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364">
+      <c r="A364" s="4">
         <v>3.6338300000000001</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="4">
         <v>2.3704499999999999</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365">
+      <c r="A365" s="4">
         <v>1.5979399999999999</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="4">
         <v>2.3704499999999999</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366">
+      <c r="A366" s="4">
         <v>1.5979399999999999</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="4">
         <v>0.68983000000000005</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367">
+      <c r="A367" s="4">
         <v>0.86303200000000002</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="4">
         <v>0.68983000000000005</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368">
+      <c r="A368" s="4">
         <v>0.86303200000000002</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="4">
         <v>2.0196399999999999</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369">
+      <c r="A369" s="4">
         <v>2.0101800000000001</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="4">
         <v>2.0196399999999999</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370">
+      <c r="A370" s="4">
         <v>2.0101800000000001</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="4">
         <v>3.2946</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371">
+      <c r="A371" s="4">
         <v>3.5256500000000002</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="4">
         <v>3.2946</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372">
+      <c r="A372" s="4">
         <v>3.5256500000000002</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="4">
         <v>5.1702899999999996</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373">
+      <c r="A373" s="4">
         <v>0.30931199999999998</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="4">
         <v>5.1702899999999996</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374">
+      <c r="A374" s="4">
         <v>0.30931199999999998</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="4">
         <v>2.85094</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375">
+      <c r="A375" s="4">
         <v>1.8610100000000001</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="4">
         <v>2.85094</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376">
+      <c r="A376" s="4">
         <v>1.8610100000000001</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="4">
         <v>0.29175000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377">
+      <c r="A377" s="4">
         <v>1.3074600000000001</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="4">
         <v>0.29175000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378">
+      <c r="A378" s="4">
         <v>1.3074600000000001</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="4">
         <v>0.62309199999999998</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379">
+      <c r="A379" s="4">
         <v>6.37012</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="4">
         <v>0.62309199999999998</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380">
+      <c r="A380" s="4">
         <v>6.37012</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="4">
         <v>0.54648399999999997</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381">
+      <c r="A381" s="4">
         <v>0.23295199999999999</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="4">
         <v>0.54648399999999997</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382">
+      <c r="A382" s="4">
         <v>0.23295199999999999</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="4">
         <v>0.49963600000000002</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383">
+      <c r="A383" s="4">
         <v>11.0703</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="4">
         <v>0.49963600000000002</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384">
+      <c r="A384" s="4">
         <v>11.0703</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="4">
         <v>1.7311300000000001</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385">
+      <c r="A385" s="4">
         <v>3.5652900000000001</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="4">
         <v>1.7311300000000001</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386">
+      <c r="A386" s="4">
         <v>3.5652900000000001</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="4">
         <v>4.3079499999999999</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387">
+      <c r="A387" s="4">
         <v>0.54984900000000003</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="4">
         <v>4.3079499999999999</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388">
+      <c r="A388" s="4">
         <v>0.54984900000000003</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="4">
         <v>1.5366</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389">
+      <c r="A389" s="4">
         <v>1.41845</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="4">
         <v>1.5366</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390">
+      <c r="A390" s="4">
         <v>1.41845</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="4">
         <v>5.6664599999999998</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391">
+      <c r="A391" s="4">
         <v>1.0216000000000001</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="4">
         <v>5.6664599999999998</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392">
+      <c r="A392" s="4">
         <v>1.0216000000000001</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="4">
         <v>0.97042700000000004</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393">
+      <c r="A393" s="4">
         <v>2.0514100000000002</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="4">
         <v>0.97042700000000004</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394">
+      <c r="A394" s="4">
         <v>2.0514100000000002</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="4">
         <v>1.23878</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395">
+      <c r="A395" s="4">
         <v>1.61964</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="4">
         <v>1.23878</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396">
+      <c r="A396" s="4">
         <v>1.61964</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="4">
         <v>1.77458E-3</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397">
+      <c r="A397" s="4">
         <v>5.09375</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="4">
         <v>1.77458E-3</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398">
+      <c r="A398" s="4">
         <v>5.09375</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="4">
         <v>0.69886199999999998</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399">
+      <c r="A399" s="4">
         <v>2.3019400000000001</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="4">
         <v>0.69886199999999998</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400">
+      <c r="A400" s="4">
         <v>2.3019400000000001</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="4">
         <v>2.6508500000000002</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401">
+      <c r="A401" s="4">
         <v>2.7576800000000001</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="4">
         <v>2.6508500000000002</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402">
+      <c r="A402" s="4">
         <v>2.7576800000000001</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="4">
         <v>1.33273</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403">
+      <c r="A403" s="4">
         <v>1.83762</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="4">
         <v>1.33273</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404">
+      <c r="A404" s="4">
         <v>1.83762</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="4">
         <v>2.63869</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405">
+      <c r="A405" s="4">
         <v>7.0129900000000003</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="4">
         <v>2.63869</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406">
+      <c r="A406" s="4">
         <v>7.0129900000000003</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="4">
         <v>0.222749</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407">
+      <c r="A407" s="4">
         <v>8.6748999999999992</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="4">
         <v>0.222749</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408">
+      <c r="A408" s="4">
         <v>8.6748999999999992</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="4">
         <v>0.54315899999999995</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409">
+      <c r="A409" s="4">
         <v>0.220473</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="4">
         <v>0.54315899999999995</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410">
+      <c r="A410" s="4">
         <v>0.220473</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="4">
         <v>0.81731600000000004</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411">
+      <c r="A411" s="4">
         <v>0.84313400000000005</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="4">
         <v>0.81731600000000004</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412">
+      <c r="A412" s="4">
         <v>0.84313400000000005</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="4">
         <v>0.17416699999999999</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413">
+      <c r="A413" s="4">
         <v>2.78511</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="4">
         <v>0.17416699999999999</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414">
+      <c r="A414" s="4">
         <v>2.78511</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="4">
         <v>1.46312</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415">
+      <c r="A415" s="4">
         <v>2.1455099999999998</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="4">
         <v>1.46312</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416">
+      <c r="A416" s="4">
         <v>2.1455099999999998</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="4">
         <v>0.29206799999999999</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417">
+      <c r="A417" s="4">
         <v>1.1304399999999999</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="4">
         <v>0.29206799999999999</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418">
+      <c r="A418" s="4">
         <v>1.1304399999999999</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="4">
         <v>3.7376200000000002</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419">
+      <c r="A419" s="4">
         <v>0.57794800000000002</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="4">
         <v>3.7376200000000002</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420">
+      <c r="A420" s="4">
         <v>0.57794800000000002</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="4">
         <v>2.0934300000000001</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421">
+      <c r="A421" s="4">
         <v>8.9268699999999992</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="4">
         <v>2.0934300000000001</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422">
+      <c r="A422" s="4">
         <v>8.9268699999999992</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="4">
         <v>0.41097499999999998</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423">
+      <c r="A423" s="4">
         <v>2.30464</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="4">
         <v>0.41097499999999998</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424">
+      <c r="A424" s="4">
         <v>2.30464</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="4">
         <v>0.97857499999999997</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425">
+      <c r="A425" s="4">
         <v>0.90093199999999996</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="4">
         <v>0.97857499999999997</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426">
+      <c r="A426" s="4">
         <v>0.90093199999999996</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="4">
         <v>1.21889</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427">
+      <c r="A427" s="4">
         <v>3.20662</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="4">
         <v>1.21889</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428">
+      <c r="A428" s="4">
         <v>3.20662</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="4">
         <v>6.0330700000000001E-2</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429">
+      <c r="A429" s="4">
         <v>4.5491799999999998</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="4">
         <v>6.0330700000000001E-2</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430">
+      <c r="A430" s="4">
         <v>4.5491799999999998</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="4">
         <v>5.9355199999999997E-2</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431">
+      <c r="A431" s="4">
         <v>1.6913800000000001</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="4">
         <v>5.9355199999999997E-2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432">
+      <c r="A432" s="4">
         <v>1.6913800000000001</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="4">
         <v>4.5139100000000001</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433">
+      <c r="A433" s="4">
         <v>5.5251900000000003</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="4">
         <v>4.5139100000000001</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434">
+      <c r="A434" s="4">
         <v>5.5251900000000003</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="4">
         <v>0.995309</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435">
+      <c r="A435" s="4">
         <v>1.4929699999999999</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="4">
         <v>0.995309</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436">
+      <c r="A436" s="4">
         <v>1.4929699999999999</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="4">
         <v>0.32028299999999998</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437">
+      <c r="A437" s="4">
         <v>2.3395100000000002</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="4">
         <v>0.32028299999999998</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438">
+      <c r="A438" s="4">
         <v>2.3395100000000002</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="4">
         <v>2.1283799999999999</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439">
+      <c r="A439" s="4">
         <v>5.83927</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="4">
         <v>2.1283799999999999</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440">
+      <c r="A440" s="4">
         <v>5.83927</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="4">
         <v>6.2603300000000001E-2</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441">
+      <c r="A441" s="4">
         <v>1.68286</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="4">
         <v>6.2603300000000001E-2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442">
+      <c r="A442" s="4">
         <v>1.68286</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="4">
         <v>4.3610499999999996</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443">
+      <c r="A443" s="4">
         <v>6.0409800000000002</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="4">
         <v>4.3610499999999996</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444">
+      <c r="A444" s="4">
         <v>6.0409800000000002</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="4">
         <v>3.2362199999999999</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445">
+      <c r="A445" s="4">
         <v>4.5969600000000002</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="4">
         <v>3.2362199999999999</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446">
+      <c r="A446" s="4">
         <v>4.5969600000000002</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="4">
         <v>1.4599899999999999</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447">
+      <c r="A447" s="4">
         <v>1.8720699999999999</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="4">
         <v>1.4599899999999999</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448">
+      <c r="A448" s="4">
         <v>1.8720699999999999</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="4">
         <v>0.53854500000000005</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449">
+      <c r="A449" s="4">
         <v>1.2694099999999999</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="4">
         <v>0.53854500000000005</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450">
+      <c r="A450" s="4">
         <v>1.2694099999999999</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="4">
         <v>0.44977</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451">
+      <c r="A451" s="4">
         <v>4.6915100000000001</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="4">
         <v>0.44977</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452">
+      <c r="A452" s="4">
         <v>4.6915100000000001</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="4">
         <v>6.1823800000000002</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453">
+      <c r="A453" s="4">
         <v>1.63706</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="4">
         <v>6.1823800000000002</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454">
+      <c r="A454" s="4">
         <v>1.63706</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="4">
         <v>0.829156</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455">
+      <c r="A455" s="4">
         <v>5.3757400000000004</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="4">
         <v>0.829156</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456">
+      <c r="A456" s="4">
         <v>5.3757400000000004</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="4">
         <v>2.9597899999999999</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457">
+      <c r="A457" s="4">
         <v>3.0423300000000002</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="4">
         <v>2.9597899999999999</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458">
+      <c r="A458" s="4">
         <v>3.0423300000000002</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="4">
         <v>0.73298099999999999</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459">
+      <c r="A459" s="4">
         <v>0.40590500000000002</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="4">
         <v>0.73298099999999999</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460">
+      <c r="A460" s="4">
         <v>0.40590500000000002</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="4">
         <v>0.84655100000000005</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461">
+      <c r="A461" s="4">
         <v>2.97516E-2</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="4">
         <v>0.84655100000000005</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462">
+      <c r="A462" s="4">
         <v>2.97516E-2</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="4">
         <v>1.1920900000000001</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463">
+      <c r="A463" s="4">
         <v>0.44366800000000001</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="4">
         <v>1.1920900000000001</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464">
+      <c r="A464" s="4">
         <v>0.44366800000000001</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="4">
         <v>1.22149</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465">
+      <c r="A465" s="4">
         <v>0.26835999999999999</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="4">
         <v>1.22149</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466">
+      <c r="A466" s="4">
         <v>0.26835999999999999</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="4">
         <v>2.0321799999999999</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467">
+      <c r="A467" s="4">
         <v>7.7153099999999997</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="4">
         <v>2.0321799999999999</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468">
+      <c r="A468" s="4">
         <v>7.7153099999999997</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="4">
         <v>0.194494</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469">
+      <c r="A469" s="4">
         <v>6.4326699999999999</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="4">
         <v>0.194494</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470">
+      <c r="A470" s="4">
         <v>6.4326699999999999</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="4">
         <v>2.15266</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471">
+      <c r="A471" s="4">
         <v>0.54147000000000001</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="4">
         <v>2.15266</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472">
+      <c r="A472" s="4">
         <v>0.54147000000000001</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="4">
         <v>7.82775</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473">
+      <c r="A473" s="4">
         <v>2.0306500000000001</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="4">
         <v>7.82775</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474">
+      <c r="A474" s="4">
         <v>2.0306500000000001</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="4">
         <v>0.51406099999999999</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475">
+      <c r="A475" s="4">
         <v>0.23242499999999999</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="4">
         <v>0.51406099999999999</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476">
+      <c r="A476" s="4">
         <v>0.23242499999999999</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="4">
         <v>4.1373499999999996</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477">
+      <c r="A477" s="4">
         <v>1.44875</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="4">
         <v>4.1373499999999996</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478">
+      <c r="A478" s="4">
         <v>1.44875</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="4">
         <v>1.7144999999999999</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479">
+      <c r="A479" s="4">
         <v>0.610317</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="4">
         <v>1.7144999999999999</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480">
+      <c r="A480" s="4">
         <v>0.610317</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="4">
         <v>2.2460100000000001</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481">
+      <c r="A481" s="4">
         <v>2.74004</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="4">
         <v>2.2460100000000001</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482">
+      <c r="A482" s="4">
         <v>2.74004</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="4">
         <v>0.68756700000000004</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483">
+      <c r="A483" s="4">
         <v>8.9772200000000009</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="4">
         <v>0.68756700000000004</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484">
+      <c r="A484" s="4">
         <v>8.9772200000000009</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="4">
         <v>2.6998500000000001</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485">
+      <c r="A485" s="4">
         <v>0.24662600000000001</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="4">
         <v>2.6998500000000001</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486">
+      <c r="A486" s="4">
         <v>0.24662600000000001</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="4">
         <v>1.0301400000000001</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487">
+      <c r="A487" s="4">
         <v>6.5192899999999998</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="4">
         <v>1.0301400000000001</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488">
+      <c r="A488" s="4">
         <v>6.5192899999999998</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="4">
         <v>2.1872199999999999</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489">
+      <c r="A489" s="4">
         <v>3.8011200000000001</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="4">
         <v>2.1872199999999999</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490">
+      <c r="A490" s="4">
         <v>3.8011200000000001</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="4">
         <v>0.82988899999999999</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491">
+      <c r="A491" s="4">
         <v>2.4932400000000001</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="4">
         <v>0.82988899999999999</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492">
+      <c r="A492" s="4">
         <v>2.4932400000000001</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="4">
         <v>1.21502</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493">
+      <c r="A493" s="4">
         <v>6.2093400000000001</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="4">
         <v>1.21502</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494">
+      <c r="A494" s="4">
         <v>6.2093400000000001</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="4">
         <v>4.1325200000000004</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495">
+      <c r="A495" s="4">
         <v>1.56036</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="4">
         <v>4.1325200000000004</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496">
+      <c r="A496" s="4">
         <v>1.56036</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="4">
         <v>6.5783199999999997</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497">
+      <c r="A497" s="4">
         <v>2.1513399999999998</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="4">
         <v>6.5783199999999997</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498">
+      <c r="A498" s="4">
         <v>2.1513399999999998</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="4">
         <v>0.713337</v>
       </c>
     </row>
@@ -12775,7 +12932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
